--- a/bookingJS/src/test/java/com/bookingJS/testData/hotelsRE.xlsx
+++ b/bookingJS/src/test/java/com/bookingJS/testData/hotelsRE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Roda Amwaj Suites Jumeirah Beach Residence</t>
   </si>
@@ -88,40 +88,7 @@
     <t>price</t>
   </si>
   <si>
-    <t>https://www.expedia.co.uk/Dubai-Hotels-Amwaj-Rotana-Jumeirah-Beach-Residence.h1819751.Hotel-Information</t>
-  </si>
-  <si>
-    <t>https://www.expedia.ca/Dubai-Hotels-Ramada-Plaza-By-Wyndham-Dubai-Deira.h988207.Hotel-Information</t>
-  </si>
-  <si>
-    <t>https://www.expedia.com/Sydney-Hotels-Meriton-Suites-Kent-Street.h19290784.Hotel-Information</t>
-  </si>
-  <si>
-    <t>https://www.expedia.com/London-Hotels-Marlin-Waterloo.h18561390.Hotel-Information</t>
-  </si>
-  <si>
-    <t>https://www.expedia.com/Dubai-Hotels-Hyatt-Regency-Dubai-Creek-Heights-Residences.h24197743.Hotel-Information</t>
-  </si>
-  <si>
-    <t>https://www.expedia.com/Tel-Aviv-Hotels-Leonardo-Beach-Tel-Aviv.h9925.Hotel-Information</t>
-  </si>
-  <si>
-    <t>The price was £160</t>
-  </si>
-  <si>
-    <t>The price was CA $204</t>
-  </si>
-  <si>
-    <t>The price is $180</t>
-  </si>
-  <si>
-    <t>The price is $182</t>
-  </si>
-  <si>
-    <t>The price is $306</t>
-  </si>
-  <si>
-    <t>The price is $166</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -488,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,9 +505,6 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -556,10 +520,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -576,10 +537,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -596,10 +554,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -616,10 +571,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -636,10 +588,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
